--- a/Data/Excels/Globals.xlsx
+++ b/Data/Excels/Globals.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowHeight="17940"/>
   </bookViews>
   <sheets>
     <sheet name="@Types" sheetId="2" r:id="rId1"/>
@@ -136,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>TableName: "Globals" Package: "table"</t>
   </si>
@@ -181,6 +181,24 @@
   </si>
   <si>
     <t>注释</t>
+  </si>
+  <si>
+    <t>Vec2</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Vec3</t>
+  </si>
+  <si>
+    <t>Z</t>
   </si>
 </sst>
 </file>
@@ -188,8 +206,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -209,73 +227,142 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,75 +376,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -384,37 +402,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,7 +522,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,25 +564,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,97 +576,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -608,24 +626,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -637,6 +637,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -665,17 +676,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -690,153 +690,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1262,13 +1280,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="10.5" customWidth="1"/>
     <col min="2" max="3" width="11.625" customWidth="1"/>
@@ -1329,17 +1347,63 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="6:6">
-      <c r="F4" s="2"/>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4"/>
     </row>
-    <row r="5" spans="6:6">
-      <c r="F5" s="2"/>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="6" spans="6:6">
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="6:6">
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
       <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Excels/Globals.xlsx
+++ b/Data/Excels/Globals.xlsx
@@ -235,7 +235,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,6 +254,30 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -254,6 +285,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -261,27 +293,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -293,24 +315,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -325,44 +354,15 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -402,187 +402,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -612,6 +612,41 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -626,28 +661,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -671,40 +689,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -713,148 +713,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1283,7 +1283,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="A9" sqref="A9:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="6"/>
